--- a/data/Game/Obj.xlsx
+++ b/data/Game/Obj.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA1DBA-F4E8-4EE8-8364-D1DABA06A146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06310D01-A3D1-4F7B-8AF8-CCC400DCC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1330,379 +1330,379 @@
     <t>EA 23.142</t>
   </si>
   <si>
+    <t>Lá phong đỏ</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Hoa xanh</t>
+  </si>
+  <si>
+    <t>Hoa vàng</t>
+  </si>
+  <si>
+    <t>Hoa trắng</t>
+  </si>
+  <si>
+    <t>Cỏ dại</t>
+  </si>
+  <si>
+    <t>Nấm</t>
+  </si>
+  <si>
+    <t>Hoa xác thối</t>
+  </si>
+  <si>
+    <t>Sỏi</t>
+  </si>
+  <si>
+    <t>Pha lê</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
+    <t>Cây nấm tím</t>
+  </si>
+  <si>
+    <t>Cây thông Noel</t>
+  </si>
+  <si>
+    <t>Dâu dại</t>
+  </si>
+  <si>
+    <t>Cây nấm xanh</t>
+  </si>
+  <si>
+    <t>Xương rồng</t>
+  </si>
+  <si>
+    <t>Cây dong dại</t>
+  </si>
+  <si>
+    <t>Quặng</t>
+  </si>
+  <si>
+    <t>Quặng đá quý</t>
+  </si>
+  <si>
+    <t>Hoa súng</t>
+  </si>
+  <si>
+    <t>Cột chống tường gỗ</t>
+  </si>
+  <si>
+    <t>Mái nhà</t>
+  </si>
+  <si>
+    <t>Cửa sổ</t>
+  </si>
+  <si>
+    <t>Khung gỗ</t>
+  </si>
+  <si>
+    <t>Đường lát</t>
+  </si>
+  <si>
+    <t>Mái nhà 2</t>
+  </si>
+  <si>
+    <t>Mái nhà 3</t>
+  </si>
+  <si>
+    <t>Mái nhà 4</t>
+  </si>
+  <si>
+    <t>Mái nhà 5</t>
+  </si>
+  <si>
+    <t>Mái nhà 6</t>
+  </si>
+  <si>
+    <t>Đường ray</t>
+  </si>
+  <si>
+    <t>Khe nứt</t>
+  </si>
+  <si>
+    <t>Đường lát đá</t>
+  </si>
+  <si>
+    <t>Tàn tích</t>
+  </si>
+  <si>
+    <t>Lúa mì</t>
+  </si>
+  <si>
+    <t>Củ cải</t>
+  </si>
+  <si>
+    <t>Cây thử nghiệm</t>
+  </si>
+  <si>
+    <t>Bắp cải</t>
+  </si>
+  <si>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>Khoai</t>
+  </si>
+  <si>
+    <t>Bắp ngô</t>
+  </si>
+  <si>
+    <t>Con đường</t>
+  </si>
+  <si>
+    <t>Con đường hẹp</t>
+  </si>
+  <si>
+    <t>Tảng</t>
+  </si>
+  <si>
+    <t>Tổ chim</t>
+  </si>
+  <si>
+    <t>Cây táo</t>
+  </si>
+  <si>
+    <t>Quả mọng</t>
+  </si>
+  <si>
+    <t>Tảng đá lớn</t>
+  </si>
+  <si>
+    <t>Xương</t>
+  </si>
+  <si>
+    <t>Cây cẩm lai</t>
+  </si>
+  <si>
+    <t>Cây linh sam</t>
+  </si>
+  <si>
+    <t>Cây tuyết tùng</t>
+  </si>
+  <si>
+    <t>Cây bạch dương</t>
+  </si>
+  <si>
+    <t>Cây thông</t>
+  </si>
+  <si>
+    <t>Cây sồi</t>
+  </si>
+  <si>
+    <t>Cây cháy</t>
+  </si>
+  <si>
+    <t>Rêu</t>
+  </si>
+  <si>
+    <t>Bụi dây leo</t>
+  </si>
+  <si>
+    <t>Cây hóa thạch mục nát</t>
+  </si>
+  <si>
+    <t>Cây hóa thạch</t>
+  </si>
+  <si>
+    <t>Cây hóa thạch lớn</t>
+  </si>
+  <si>
+    <t>Hóa thạch mục nát</t>
+  </si>
+  <si>
+    <t>Trụ buộc tàu</t>
+  </si>
+  <si>
+    <t>Mái nhà 7</t>
+  </si>
+  <si>
+    <t>Bóng cá</t>
+  </si>
+  <si>
+    <t>Cây gụ</t>
+  </si>
+  <si>
+    <t>Cây chi keo</t>
+  </si>
+  <si>
+    <t>Sàn nứt</t>
+  </si>
+  <si>
+    <t>Gốc cây</t>
+  </si>
+  <si>
+    <t>Rong biển</t>
+  </si>
+  <si>
+    <t>Vỏ sò</t>
+  </si>
+  <si>
+    <t>San hô</t>
+  </si>
+  <si>
+    <t>Cây liễu</t>
+  </si>
+  <si>
+    <t>Cây anh đào</t>
+  </si>
+  <si>
+    <t>Nho</t>
+  </si>
+  <si>
+    <t>Đống lá rụng</t>
+  </si>
+  <si>
     <t>Kiểm thử</t>
   </si>
   <si>
-    <t>Lá phong đỏ</t>
-  </si>
-  <si>
-    <t>Hoa</t>
-  </si>
-  <si>
-    <t>Hoa xanh</t>
-  </si>
-  <si>
-    <t>Hoa vàng</t>
-  </si>
-  <si>
-    <t>Hoa trắng</t>
-  </si>
-  <si>
-    <t>Cỏ dại</t>
-  </si>
-  <si>
-    <t>Nấm</t>
-  </si>
-  <si>
-    <t>Hoa xác thối</t>
-  </si>
-  <si>
-    <t>Pha lê</t>
-  </si>
-  <si>
-    <t>Đá</t>
-  </si>
-  <si>
-    <t>Cây nấm tím</t>
-  </si>
-  <si>
-    <t>Cây thông Noel</t>
-  </si>
-  <si>
-    <t>Cây nấm xanh</t>
-  </si>
-  <si>
-    <t>Xương rồng</t>
-  </si>
-  <si>
-    <t>Quặng</t>
-  </si>
-  <si>
-    <t>Hoa súng</t>
-  </si>
-  <si>
-    <t>Cột chống tường gỗ</t>
-  </si>
-  <si>
-    <t>Mái nhà</t>
-  </si>
-  <si>
-    <t>Cửa sổ</t>
-  </si>
-  <si>
-    <t>Khung gỗ</t>
-  </si>
-  <si>
-    <t>Đường lát</t>
-  </si>
-  <si>
-    <t>Mái nhà 2</t>
-  </si>
-  <si>
-    <t>Mái nhà 3</t>
-  </si>
-  <si>
-    <t>Mái nhà 4</t>
-  </si>
-  <si>
-    <t>Mái nhà 5</t>
-  </si>
-  <si>
-    <t>Mái nhà 6</t>
-  </si>
-  <si>
-    <t>Đường ray</t>
-  </si>
-  <si>
-    <t>Khe nứt</t>
-  </si>
-  <si>
-    <t>Đường lát đá</t>
-  </si>
-  <si>
-    <t>Tàn tích</t>
-  </si>
-  <si>
-    <t>Lúa mì</t>
-  </si>
-  <si>
-    <t>Củ cải</t>
-  </si>
-  <si>
-    <t>Cây thử nghiệm</t>
-  </si>
-  <si>
-    <t>Bắp cải</t>
-  </si>
-  <si>
-    <t>Cà chua</t>
-  </si>
-  <si>
-    <t>Cà rốt</t>
-  </si>
-  <si>
-    <t>Khoai</t>
+    <t>Bông</t>
+  </si>
+  <si>
+    <t>Di hài</t>
+  </si>
+  <si>
+    <t>Gò đất</t>
+  </si>
+  <si>
+    <t>Lúa</t>
+  </si>
+  <si>
+    <t>Vạch trắng</t>
+  </si>
+  <si>
+    <t>Trái cầu vồng</t>
+  </si>
+  <si>
+    <t>Đá muối</t>
+  </si>
+  <si>
+    <t>Khung</t>
+  </si>
+  <si>
+    <t>Măng đá</t>
+  </si>
+  <si>
+    <t>Cây mục nát</t>
+  </si>
+  <si>
+    <t>Bức tường đổ nát</t>
+  </si>
+  <si>
+    <t>Cỏ bấc</t>
+  </si>
+  <si>
+    <t>Tảng đá khổng lồ</t>
+  </si>
+  <si>
+    <t>Đá lưu huỳnh</t>
+  </si>
+  <si>
+    <t>Tre</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>Đồng cỏ</t>
+  </si>
+  <si>
+    <t>Hóa chất</t>
+  </si>
+  <si>
+    <t>Cỏ lau</t>
+  </si>
+  <si>
+    <t>Mảnh vỡ</t>
+  </si>
+  <si>
+    <t>Băng chuyền</t>
+  </si>
+  <si>
+    <t>Mảnh vụn</t>
+  </si>
+  <si>
+    <t>Cây chuối</t>
+  </si>
+  <si>
+    <t>Cây cam</t>
+  </si>
+  <si>
+    <t>Cây lê</t>
+  </si>
+  <si>
+    <t>Cỏ đỏ</t>
+  </si>
+  <si>
+    <t>Cỏ xanh</t>
+  </si>
+  <si>
+    <t>Cỏ tím</t>
+  </si>
+  <si>
+    <t>Cây huyền linh</t>
+  </si>
+  <si>
+    <t>Cây san hô</t>
+  </si>
+  <si>
+    <t>Dương xỉ</t>
+  </si>
+  <si>
+    <t>Cà phê</t>
+  </si>
+  <si>
+    <t>Thuốc lá</t>
+  </si>
+  <si>
+    <t>Mái nhà 8</t>
+  </si>
+  <si>
+    <t>Mái nhà 9</t>
+  </si>
+  <si>
+    <t>Mái nhà 10</t>
+  </si>
+  <si>
+    <t>Mái nhà 11</t>
+  </si>
+  <si>
+    <t>Mái nhà 12</t>
+  </si>
+  <si>
+    <t>Mái nhà 13</t>
+  </si>
+  <si>
+    <t>Mái nhà 14</t>
+  </si>
+  <si>
+    <t>Mái nhà 15</t>
+  </si>
+  <si>
+    <t>Mái nhà 16</t>
+  </si>
+  <si>
+    <t>Mái nhà 17</t>
+  </si>
+  <si>
+    <t>Đường neon</t>
+  </si>
+  <si>
+    <t>Rạn san hô</t>
+  </si>
+  <si>
+    <t>Tảo biển sâu</t>
   </si>
   <si>
     <t>Bí ngô</t>
-  </si>
-  <si>
-    <t>Tảo biển sâu</t>
-  </si>
-  <si>
-    <t>Rạn san hô</t>
-  </si>
-  <si>
-    <t>Đường neon</t>
-  </si>
-  <si>
-    <t>Mái nhà 17</t>
-  </si>
-  <si>
-    <t>Mái nhà 16</t>
-  </si>
-  <si>
-    <t>Mái nhà 15</t>
-  </si>
-  <si>
-    <t>Mái nhà 14</t>
-  </si>
-  <si>
-    <t>Mái nhà 13</t>
-  </si>
-  <si>
-    <t>Mái nhà 12</t>
-  </si>
-  <si>
-    <t>Mái nhà 11</t>
-  </si>
-  <si>
-    <t>Cỏ xanh</t>
-  </si>
-  <si>
-    <t>Mái nhà 10</t>
-  </si>
-  <si>
-    <t>Mái nhà 9</t>
-  </si>
-  <si>
-    <t>Mái nhà 8</t>
-  </si>
-  <si>
-    <t>Thuốc lá</t>
-  </si>
-  <si>
-    <t>Cà phê</t>
-  </si>
-  <si>
-    <t>Dương xỉ</t>
-  </si>
-  <si>
-    <t>Cây san hô</t>
-  </si>
-  <si>
-    <t>Cây huyền linh</t>
-  </si>
-  <si>
-    <t>Cỏ tím</t>
-  </si>
-  <si>
-    <t>Cỏ đỏ</t>
-  </si>
-  <si>
-    <t>Cây lê</t>
-  </si>
-  <si>
-    <t>Cây cam</t>
-  </si>
-  <si>
-    <t>Cây chuối</t>
-  </si>
-  <si>
-    <t>Mảnh vụn</t>
-  </si>
-  <si>
-    <t>Băng chuyền</t>
-  </si>
-  <si>
-    <t>Mảnh vỡ</t>
-  </si>
-  <si>
-    <t>Cỏ lau</t>
-  </si>
-  <si>
-    <t>Hóa chất</t>
-  </si>
-  <si>
-    <t>Khung</t>
-  </si>
-  <si>
-    <t>Đồng cỏ</t>
-  </si>
-  <si>
-    <t>Api</t>
-  </si>
-  <si>
-    <t>Tre</t>
-  </si>
-  <si>
-    <t>Đá lưu huỳnh</t>
-  </si>
-  <si>
-    <t>Tảng đá khổng lồ</t>
-  </si>
-  <si>
-    <t>Cỏ bấc</t>
-  </si>
-  <si>
-    <t>Bức tường đổ nát</t>
-  </si>
-  <si>
-    <t>Cây mục nát</t>
-  </si>
-  <si>
-    <t>Măng đá</t>
-  </si>
-  <si>
-    <t>Đá muối</t>
-  </si>
-  <si>
-    <t>Trái cầu vồng</t>
-  </si>
-  <si>
-    <t>Vạch trắng</t>
-  </si>
-  <si>
-    <t>Lúa</t>
-  </si>
-  <si>
-    <t>Gò đất</t>
-  </si>
-  <si>
-    <t>Di hài</t>
-  </si>
-  <si>
-    <t>Bông</t>
-  </si>
-  <si>
-    <t>Đống lá rụng</t>
-  </si>
-  <si>
-    <t>Nho</t>
-  </si>
-  <si>
-    <t>Cây anh đào</t>
-  </si>
-  <si>
-    <t>Cây liễu</t>
-  </si>
-  <si>
-    <t>San hô</t>
-  </si>
-  <si>
-    <t>Bắp ngô</t>
-  </si>
-  <si>
-    <t>Con đường</t>
-  </si>
-  <si>
-    <t>Con đường hẹp</t>
-  </si>
-  <si>
-    <t>Tảng</t>
-  </si>
-  <si>
-    <t>Tổ chim</t>
-  </si>
-  <si>
-    <t>Cây táo</t>
-  </si>
-  <si>
-    <t>Quả mọng</t>
-  </si>
-  <si>
-    <t>Tảng đá lớn</t>
-  </si>
-  <si>
-    <t>Xương</t>
-  </si>
-  <si>
-    <t>Cây cẩm lai</t>
-  </si>
-  <si>
-    <t>Cây linh sam</t>
-  </si>
-  <si>
-    <t>Cây tuyết tùng</t>
-  </si>
-  <si>
-    <t>Cây bạch dương</t>
-  </si>
-  <si>
-    <t>Cây thông</t>
-  </si>
-  <si>
-    <t>Cây sồi</t>
-  </si>
-  <si>
-    <t>Cây cháy</t>
-  </si>
-  <si>
-    <t>Rêu</t>
-  </si>
-  <si>
-    <t>Bụi dây leo</t>
-  </si>
-  <si>
-    <t>Cây hóa thạch mục nát</t>
-  </si>
-  <si>
-    <t>Cây hóa thạch</t>
-  </si>
-  <si>
-    <t>Cây hóa thạch lớn</t>
-  </si>
-  <si>
-    <t>Hóa thạch mục nát</t>
-  </si>
-  <si>
-    <t>Trụ buộc tàu</t>
-  </si>
-  <si>
-    <t>Mái nhà 7</t>
-  </si>
-  <si>
-    <t>Bóng cá</t>
-  </si>
-  <si>
-    <t>Cây gụ</t>
-  </si>
-  <si>
-    <t>Cây chi keo</t>
-  </si>
-  <si>
-    <t>Sàn nứt</t>
-  </si>
-  <si>
-    <t>Gốc cây</t>
-  </si>
-  <si>
-    <t>Rong biển</t>
-  </si>
-  <si>
-    <t>Vỏ sò</t>
-  </si>
-  <si>
-    <t>Sỏi</t>
-  </si>
-  <si>
-    <t>Quặng đá quý</t>
-  </si>
-  <si>
-    <t>Dâu dại</t>
-  </si>
-  <si>
-    <t>Cây dong dại</t>
   </si>
 </sst>
 </file>
@@ -2060,20 +2060,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2116,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2133,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2150,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>397</v>
       </c>
       <c r="C6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2167,7 +2166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>397</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2184,7 +2183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>397</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2201,7 +2200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -2218,7 +2217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2235,7 +2234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -2252,7 +2251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -2269,7 +2268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>448</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -2354,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>397</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -2371,7 +2370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -2388,7 +2387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>397</v>
       </c>
       <c r="C20" t="s">
-        <v>559</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -2405,7 +2404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>397</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -2422,7 +2421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>557</v>
+        <v>453</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -2439,7 +2438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>399</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -2456,7 +2455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>397</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -2473,7 +2472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>397</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -2490,7 +2489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>397</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -2507,7 +2506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>400</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -2524,7 +2523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>397</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -2541,7 +2540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>397</v>
       </c>
       <c r="C29" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -2558,7 +2557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
@@ -2575,7 +2574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>397</v>
       </c>
       <c r="C31" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -2592,7 +2591,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -2609,7 +2608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -2626,7 +2625,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -2643,7 +2642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>397</v>
       </c>
       <c r="C35" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -2660,7 +2659,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>397</v>
       </c>
       <c r="C36" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -2677,7 +2676,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>401</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -2694,7 +2693,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>397</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
@@ -2711,7 +2710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>397</v>
       </c>
       <c r="C39" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -2728,7 +2727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>397</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -2745,7 +2744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>397</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
@@ -2762,7 +2761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -2779,7 +2778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -2796,7 +2795,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>402</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -2813,7 +2812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>402</v>
       </c>
       <c r="C45" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -2830,7 +2829,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -2847,7 +2846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>397</v>
       </c>
       <c r="C47" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="D47" t="s">
         <v>137</v>
@@ -2864,7 +2863,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>397</v>
       </c>
       <c r="C48" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -2881,7 +2880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>397</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
@@ -2898,7 +2897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>397</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -2915,7 +2914,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>397</v>
       </c>
       <c r="C51" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -2932,7 +2931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>403</v>
       </c>
       <c r="C52" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="D52" t="s">
         <v>149</v>
@@ -2949,7 +2948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>398</v>
       </c>
       <c r="C53" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="D53" t="s">
         <v>152</v>
@@ -2966,7 +2965,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>397</v>
       </c>
       <c r="C54" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
@@ -2983,7 +2982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>397</v>
       </c>
       <c r="C55" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -3000,7 +2999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>397</v>
       </c>
       <c r="C56" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="D56" t="s">
         <v>161</v>
@@ -3017,7 +3016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>397</v>
       </c>
       <c r="C57" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
         <v>164</v>
@@ -3034,7 +3033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>397</v>
       </c>
       <c r="C58" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="D58" t="s">
         <v>167</v>
@@ -3051,7 +3050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>397</v>
       </c>
       <c r="C59" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -3068,7 +3067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>172</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>397</v>
       </c>
       <c r="C60" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
@@ -3085,7 +3084,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>397</v>
       </c>
       <c r="C61" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="D61" t="s">
         <v>176</v>
@@ -3102,7 +3101,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>397</v>
       </c>
       <c r="C62" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="D62" t="s">
         <v>179</v>
@@ -3119,7 +3118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>404</v>
       </c>
       <c r="C63" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="D63" t="s">
         <v>182</v>
@@ -3136,7 +3135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>184</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>397</v>
       </c>
       <c r="C64" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="D64" t="s">
         <v>185</v>
@@ -3153,7 +3152,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>397</v>
       </c>
       <c r="C65" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -3170,7 +3169,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="D66" t="s">
         <v>191</v>
@@ -3187,7 +3186,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>397</v>
       </c>
       <c r="C67" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="D67" t="s">
         <v>194</v>
@@ -3204,7 +3203,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="D68" t="s">
         <v>197</v>
@@ -3221,7 +3220,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>397</v>
       </c>
       <c r="C69" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="D69" t="s">
         <v>200</v>
@@ -3238,7 +3237,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>397</v>
       </c>
       <c r="C70" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="D70" t="s">
         <v>203</v>
@@ -3255,7 +3254,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>405</v>
       </c>
       <c r="C71" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="D71" t="s">
         <v>206</v>
@@ -3272,7 +3271,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>397</v>
       </c>
       <c r="C72" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="D72" t="s">
         <v>209</v>
@@ -3289,7 +3288,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>397</v>
       </c>
       <c r="C73" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="D73" t="s">
         <v>212</v>
@@ -3306,7 +3305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>397</v>
       </c>
       <c r="C74" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -3323,7 +3322,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>217</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>397</v>
       </c>
       <c r="C75" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="D75" t="s">
         <v>218</v>
@@ -3340,7 +3339,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>397</v>
       </c>
       <c r="C76" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -3357,7 +3356,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>397</v>
       </c>
       <c r="C77" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
@@ -3374,7 +3373,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>397</v>
       </c>
       <c r="C78" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -3391,7 +3390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D79" t="s">
         <v>230</v>
@@ -3408,7 +3407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>232</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D80" t="s">
         <v>233</v>
@@ -3425,7 +3424,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>402</v>
       </c>
       <c r="C81" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D81" t="s">
         <v>236</v>
@@ -3442,7 +3441,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>238</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>397</v>
       </c>
       <c r="C82" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D82" t="s">
         <v>239</v>
@@ -3459,7 +3458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>397</v>
       </c>
       <c r="C83" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="D83" t="s">
         <v>242</v>
@@ -3476,7 +3475,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>243</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>406</v>
       </c>
       <c r="C84" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D84" t="s">
         <v>244</v>
@@ -3493,7 +3492,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>406</v>
       </c>
       <c r="C85" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D85" t="s">
         <v>247</v>
@@ -3510,7 +3509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>249</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D86" t="s">
         <v>108</v>
@@ -3527,7 +3526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>401</v>
       </c>
       <c r="C87" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D87" t="s">
         <v>251</v>
@@ -3544,7 +3543,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="C88" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -3561,7 +3560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>401</v>
       </c>
       <c r="C89" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D89" t="s">
         <v>108</v>
@@ -3578,7 +3577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>401</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -3595,7 +3594,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>256</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>259</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>409</v>
       </c>
       <c r="C92" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D92" t="s">
         <v>260</v>
@@ -3629,7 +3628,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D93" t="s">
         <v>263</v>
@@ -3646,7 +3645,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>265</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D94" t="s">
         <v>266</v>
@@ -3663,7 +3662,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>268</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="D95" t="s">
         <v>269</v>
@@ -3680,7 +3679,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>271</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>412</v>
       </c>
       <c r="C96" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D96" t="s">
         <v>272</v>
@@ -3697,7 +3696,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>274</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D97" t="s">
         <v>275</v>
@@ -3714,7 +3713,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>277</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>413</v>
       </c>
       <c r="C98" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D98" t="s">
         <v>278</v>
@@ -3731,7 +3730,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>280</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D99" t="s">
         <v>278</v>
@@ -3748,7 +3747,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>281</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>400</v>
       </c>
       <c r="C100" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
@@ -3765,7 +3764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>282</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>400</v>
       </c>
       <c r="C101" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D101" t="s">
         <v>99</v>
@@ -3782,7 +3781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>400</v>
       </c>
       <c r="C102" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D102" t="s">
         <v>284</v>
@@ -3799,7 +3798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>286</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>400</v>
       </c>
       <c r="C103" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D103" t="s">
         <v>287</v>
@@ -3816,7 +3815,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>400</v>
       </c>
       <c r="C104" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D104" t="s">
         <v>78</v>
@@ -3833,7 +3832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>290</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>400</v>
       </c>
       <c r="C105" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D105" t="s">
         <v>291</v>
@@ -3850,7 +3849,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>293</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D106" t="s">
         <v>294</v>
@@ -3867,7 +3866,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>296</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>414</v>
       </c>
       <c r="C107" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="D107" t="s">
         <v>297</v>
@@ -3884,7 +3883,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>299</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>415</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="D108" t="s">
         <v>300</v>
@@ -3901,7 +3900,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>302</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>416</v>
       </c>
       <c r="C109" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="D109" t="s">
         <v>78</v>
@@ -3918,7 +3917,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>417</v>
       </c>
       <c r="C110" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="D110" t="s">
         <v>304</v>
@@ -3935,7 +3934,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>306</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D111" t="s">
         <v>307</v>
@@ -3952,7 +3951,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>309</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>418</v>
       </c>
       <c r="C112" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="D112" t="s">
         <v>310</v>
@@ -3969,7 +3968,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>312</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>417</v>
       </c>
       <c r="C113" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="D113" t="s">
         <v>313</v>
@@ -3986,7 +3985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>315</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>417</v>
       </c>
       <c r="C114" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="D114" t="s">
         <v>316</v>
@@ -4003,7 +4002,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>318</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>403</v>
       </c>
       <c r="C115" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="D115" t="s">
         <v>319</v>
@@ -4020,7 +4019,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>321</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>403</v>
       </c>
       <c r="C116" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="D116" t="s">
         <v>322</v>
@@ -4037,7 +4036,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>324</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>403</v>
       </c>
       <c r="C117" t="s">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="D117" t="s">
         <v>325</v>
@@ -4054,7 +4053,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>419</v>
       </c>
       <c r="C118" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="D118" t="s">
         <v>328</v>
@@ -4071,7 +4070,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>330</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>419</v>
       </c>
       <c r="C119" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="D119" t="s">
         <v>331</v>
@@ -4088,7 +4087,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>333</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>420</v>
       </c>
       <c r="C120" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="D120" t="s">
         <v>334</v>
@@ -4105,7 +4104,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>336</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>421</v>
       </c>
       <c r="C121" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="D121" t="s">
         <v>337</v>
@@ -4122,7 +4121,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>339</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>422</v>
       </c>
       <c r="C122" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="D122" t="s">
         <v>340</v>
@@ -4139,7 +4138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>342</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>423</v>
       </c>
       <c r="C123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -4156,7 +4155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>343</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>423</v>
       </c>
       <c r="C124" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="D124" t="s">
         <v>344</v>
@@ -4173,7 +4172,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>346</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>424</v>
       </c>
       <c r="C125" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="D125" t="s">
         <v>347</v>
@@ -4190,7 +4189,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>349</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>424</v>
       </c>
       <c r="C126" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="D126" t="s">
         <v>350</v>
@@ -4207,7 +4206,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>352</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>425</v>
       </c>
       <c r="C127" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="D127" t="s">
         <v>353</v>
@@ -4224,7 +4223,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>355</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>426</v>
       </c>
       <c r="C128" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="D128" t="s">
         <v>356</v>
@@ -4241,7 +4240,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>358</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>427</v>
       </c>
       <c r="C129" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="D129" t="s">
         <v>359</v>
@@ -4258,7 +4257,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>361</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>427</v>
       </c>
       <c r="C130" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="D130" t="s">
         <v>362</v>
@@ -4275,7 +4274,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>364</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>428</v>
       </c>
       <c r="C131" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="D131" t="s">
         <v>365</v>
@@ -4292,7 +4291,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>367</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>429</v>
       </c>
       <c r="C132" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="D132" t="s">
         <v>368</v>
@@ -4309,7 +4308,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>370</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>430</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="D133" t="s">
         <v>371</v>
@@ -4326,7 +4325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>373</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>431</v>
       </c>
       <c r="C134" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="D134" t="s">
         <v>374</v>
@@ -4343,7 +4342,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>376</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>431</v>
       </c>
       <c r="C135" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="D135" t="s">
         <v>377</v>
@@ -4360,7 +4359,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>379</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>432</v>
       </c>
       <c r="C136" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="D136" t="s">
         <v>380</v>
@@ -4377,7 +4376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>432</v>
       </c>
       <c r="C137" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="D137" t="s">
         <v>383</v>
@@ -4394,7 +4393,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>385</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>432</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="D138" t="s">
         <v>386</v>
@@ -4411,7 +4410,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>388</v>
       </c>
@@ -4419,7 +4418,7 @@
         <v>433</v>
       </c>
       <c r="C139" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="D139" t="s">
         <v>389</v>
@@ -4428,7 +4427,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>391</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>433</v>
       </c>
       <c r="C140" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="D140" t="s">
         <v>392</v>
@@ -4445,7 +4444,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>394</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>434</v>
       </c>
       <c r="C141" t="s">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="D141" t="s">
         <v>395</v>
@@ -4463,13 +4462,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H141" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="palulu tree"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>